--- a/webrouting/src/main/resources/static/documents/Technicians - SAMPLE.xlsx
+++ b/webrouting/src/main/resources/static/documents/Technicians - SAMPLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPSC 488 Software Engineering\excel samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakot\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27E09A2-4311-4675-8960-3E51B83F23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E660EDF9-F257-479B-AD9E-160988068E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="4410" windowWidth="26280" windowHeight="15885" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="27045" windowHeight="15195" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>William Shatner</t>
   </si>
   <si>
-    <t>Dakota Myers</t>
-  </si>
-  <si>
     <t>Alea Cramer</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Daren Nesson</t>
+  </si>
+  <si>
+    <t>Franz Ferdinand</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,55 +541,55 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
